--- a/project_data/machaccnt_pay_dispatch/支付记账接口测试用例.xlsx
+++ b/project_data/machaccnt_pay_dispatch/支付记账接口测试用例.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\YzBgdMmtSysTestProject\project_data\machaccnt_pay_dispatch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\YzaoutTestProject\YzAutoTestProject\project_data\machaccnt_pay_dispatch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD8A73C-BD19-4862-BD63-1F6EC1A34471}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5591BB-ACA5-4F64-9168-5CD13D05BDDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1657,11 +1657,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>split_accnt_detail数据结构
-为非[]的数据类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>使用正确的支付记账传参，对子商户信息数据结构进行测试</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1702,17 +1697,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>order_no
-同一请求中包含两个相同的oder_no</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>pay_32</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_no
-请求中包含数据库存在的oder_no</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1784,11 +1769,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>order_no
-不输入oder_no</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>测试不输入oder_no</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1824,11 +1804,6 @@
   </si>
   <si>
     <t>{"code":"210","message":"必输参数不能为空{order_no}"}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_no
-输入超长的oder_no</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -2749,6 +2724,31 @@
   </si>
   <si>
     <t>{"code":"317","message":"交易所属通道和商户号不匹配"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>split_accnt_detail(数据结构)
+为非[]的数据类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_no(唯一id)
+同一请求中包含两个相同的oder_no</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_no(唯一id)
+请求中包含数据库存在的oder_no</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_no(唯一id)
+不输入oder_no</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_no(唯一id)
+输入超长的oder_no</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3170,8 +3170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F52425-50B6-4FC5-B1E3-EFCEFBF70C4B}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G66" activeCellId="1" sqref="G19 G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3198,10 +3198,10 @@
         <v>34</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>35</v>
@@ -3231,10 +3231,10 @@
         <v>39</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>43</v>
@@ -3262,10 +3262,10 @@
         <v>39</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>43</v>
@@ -3293,10 +3293,10 @@
         <v>39</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>55</v>
@@ -3324,10 +3324,10 @@
         <v>39</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>56</v>
@@ -3355,17 +3355,17 @@
         <v>39</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>57</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>45</v>
@@ -3386,10 +3386,10 @@
         <v>39</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>57</v>
@@ -3414,13 +3414,13 @@
         <v>60</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -3431,7 +3431,7 @@
         <v>136</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3439,13 +3439,13 @@
         <v>66</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -3456,7 +3456,7 @@
         <v>136</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3464,13 +3464,13 @@
         <v>73</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -3481,7 +3481,7 @@
         <v>136</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3489,20 +3489,20 @@
         <v>74</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>45</v>
@@ -3514,7 +3514,7 @@
         <v>42</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3522,20 +3522,20 @@
         <v>77</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>45</v>
@@ -3547,7 +3547,7 @@
         <v>42</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3555,20 +3555,20 @@
         <v>80</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>45</v>
@@ -3580,7 +3580,7 @@
         <v>42</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3591,7 +3591,7 @@
         <v>64</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>63</v>
@@ -3604,7 +3604,7 @@
         <v>62</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>65</v>
@@ -3620,7 +3620,7 @@
         <v>64</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>68</v>
@@ -3633,7 +3633,7 @@
         <v>89</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>70</v>
@@ -3651,7 +3651,7 @@
         <v>64</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>67</v>
@@ -3661,10 +3661,10 @@
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>71</v>
@@ -3682,7 +3682,7 @@
         <v>64</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>69</v>
@@ -3711,7 +3711,7 @@
         <v>64</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>75</v>
@@ -3740,7 +3740,7 @@
         <v>64</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>79</v>
@@ -3753,7 +3753,7 @@
         <v>90</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>82</v>
@@ -3769,7 +3769,7 @@
         <v>64</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>84</v>
@@ -3782,7 +3782,7 @@
         <v>91</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>86</v>
@@ -3800,7 +3800,7 @@
         <v>64</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>85</v>
@@ -3829,7 +3829,7 @@
         <v>64</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>88</v>
@@ -3842,7 +3842,7 @@
         <v>93</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>94</v>
@@ -3858,7 +3858,7 @@
         <v>64</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>95</v>
@@ -3871,7 +3871,7 @@
         <v>96</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>97</v>
@@ -3889,7 +3889,7 @@
         <v>64</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>102</v>
@@ -3902,7 +3902,7 @@
         <v>103</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>104</v>
@@ -3920,7 +3920,7 @@
         <v>64</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>106</v>
@@ -3949,7 +3949,7 @@
         <v>64</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>110</v>
@@ -3962,7 +3962,7 @@
         <v>112</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>111</v>
@@ -3980,7 +3980,7 @@
         <v>64</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>113</v>
@@ -4009,7 +4009,7 @@
         <v>64</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>123</v>
@@ -4038,7 +4038,7 @@
         <v>64</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>124</v>
@@ -4067,7 +4067,7 @@
         <v>64</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>121</v>
@@ -4090,13 +4090,13 @@
     </row>
     <row r="31" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>126</v>
@@ -4109,7 +4109,7 @@
         <v>127</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>129</v>
@@ -4121,13 +4121,13 @@
     </row>
     <row r="32" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>130</v>
@@ -4150,26 +4150,26 @@
     </row>
     <row r="33" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>119</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>135</v>
@@ -4179,13 +4179,13 @@
     </row>
     <row r="34" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>133</v>
@@ -4208,13 +4208,13 @@
     </row>
     <row r="35" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>149</v>
@@ -4237,13 +4237,13 @@
     </row>
     <row r="36" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>154</v>
@@ -4266,13 +4266,13 @@
     </row>
     <row r="37" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>158</v>
@@ -4295,26 +4295,26 @@
     </row>
     <row r="38" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D38" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H38" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="11" t="s">
@@ -4324,120 +4324,120 @@
     </row>
     <row r="39" spans="1:11" ht="228" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>172</v>
+        <v>298</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="K39" s="3"/>
     </row>
     <row r="40" spans="1:11" ht="228" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>174</v>
+        <v>299</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="K40" s="3"/>
     </row>
     <row r="41" spans="1:11" ht="201.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>179</v>
+        <v>300</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="I41" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>186</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
     </row>
     <row r="42" spans="1:11" ht="188.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>183</v>
+        <v>301</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="J42" s="11" t="s">
         <v>136</v>
@@ -4445,142 +4445,142 @@
     </row>
     <row r="43" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="J43"/>
       <c r="K43" s="3"/>
     </row>
     <row r="44" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="J44"/>
       <c r="K44" s="3"/>
     </row>
     <row r="45" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="J45"/>
       <c r="K45" s="3"/>
     </row>
     <row r="46" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="J46"/>
       <c r="K46" s="3"/>
     </row>
     <row r="47" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>132</v>
@@ -4590,110 +4590,110 @@
     </row>
     <row r="48" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="J48"/>
       <c r="K48" s="3"/>
     </row>
     <row r="49" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="J49"/>
       <c r="K49" s="3"/>
     </row>
     <row r="50" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="J50"/>
       <c r="K50" s="3"/>
     </row>
     <row r="51" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="9" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="J51" s="11" t="s">
         <v>136</v>
@@ -4702,29 +4702,29 @@
     </row>
     <row r="52" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="J52" s="11" t="s">
         <v>136</v>
@@ -4733,29 +4733,29 @@
     </row>
     <row r="53" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="J53" s="11" t="s">
         <v>136</v>
@@ -4764,19 +4764,19 @@
     </row>
     <row r="54" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -4786,7 +4786,7 @@
         <v>136</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -4972,14 +4972,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="13" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="15" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="13"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="15"/>
+</pixelators>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <commentList sheetStid="13">
     <comment s:ref="P1" rgbClr="FF0000">
@@ -4996,22 +5006,12 @@
 </comments>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="13"/>
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="15"/>
-</pixelators>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="13" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="15" master=""/>
-</allowEditUser>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5021,7 +5021,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -5030,6 +5030,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
@@ -5038,17 +5047,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/project_data/machaccnt_pay_dispatch/支付记账接口测试用例.xlsx
+++ b/project_data/machaccnt_pay_dispatch/支付记账接口测试用例.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\YzaoutTestProject\YzAutoTestProject\project_data\machaccnt_pay_dispatch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5591BB-ACA5-4F64-9168-5CD13D05BDDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553AF009-D8DA-443C-9DAE-F35D14D9DB1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="支付记账" sheetId="14" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="310">
   <si>
     <t>级别</t>
   </si>
@@ -1661,35 +1661,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"biz_content": {
-"trans_no": "MH20181229115220NBUu",
-"trans_time": "2020-01-11 14:35:41",
-"trans_channel": "20251",
-"settle_type":"1",
-"trans_amt": "2200",
-"split_accnt_detail":{},
-"biz_type": "mchaccnt.pay.dispatch",
-"out_trans_no": "225295c2068ae5405cada7edf1670749a6",
-"sign_type": "MD5",
-"timestamp": "20191028022240"
-}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统出错，清联系项目组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>pay_30</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>能成功</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>未知错误</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1811,10 +1783,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>未知错误</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>oder_no为空</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2141,36 +2109,6 @@
   </si>
   <si>
     <t>使用正确的支付记账传参，单独对记账事件字段进行验证</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"biz_content": {
-"trans_no": "MH20181229115220NBUu",
-"trans_time": "2020-01-11 14:35:41",
-"trans_channel": "20251",
-"settle_type":"1",
-"trans_amt": "1",
-"split_accnt_detail": [{
-"order_no": "test1",
-"amount": 1,
-"dispatch_event": "pay",
-"dispatch_type": "1",
-"mch_accnt_no": "mucsub_1",
-"accnt_amt_before": 1
-},{
-"order_no": "test2",
-"amount": 0,
-"dispatch_event": "pay",
-"dispatch_type": "1",
-"mch_accnt_no": "profit_1",
-"accnt_amt_before": 1
-}]},
-"biz_type": "mchaccnt.pay.dispatch",
-"out_trans_no": "225295c2068ae5405cada7edf1670749a6",
-"sign_type": "MD5",
-"timestamp": "20191028022240"
-}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -2297,10 +2235,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>{"code":"210","message":"必输参数不能为空{mch_accnt_no}"}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>mch_accnt_no是空</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2314,23 +2248,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>{"code":"210","message":"子商户号不存在"}</t>
-  </si>
-  <si>
     <t>mch_accnt_no是不存在</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>pay_46</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>mch_accnt_no(子商户号)
-子商户号类型为其他类型的商户，如在途商户</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  确定是否只有分润和子商户能进行支付记账</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -2364,18 +2286,6 @@
   </si>
   <si>
     <t>{"code":"101","message":"必输参数不能为空:{[trans_no]参数}"}</t>
-  </si>
-  <si>
-    <t>{"code":"500","message": '{"order_no":"DD120191211234801","amount":2000,"dispatch_event":"pay","promotion_amt":0,"dispatch_type":"1","mch_accnt_no":"T0020200303191941000000","accnt_amt_before":1}订单号重复'}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"code":"500","message":'{"order_no":"test1","amount":200,"dispatch_event":"pay","dispatch_type":"1","mch_accnt_no":"T0020181229115338000002","accnt_amt_before":1}订单号重复'</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>skip</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -2418,36 +2328,6 @@
   <si>
     <t>{
 "biz_content": {
-"trans_no": "\\201",
-"trans_time": "2020-01-11 14:35:41",
-"trans_channel": "20251",
-"settle_type":"1",
-"trans_amt": "2200",
-"split_accnt_detail": [{
-"order_no": "test1",
-"amount": 2000,
-"dispatch_event": "pay",
-"dispatch_type": "1",
-"mch_accnt_no": "mucsub_1",
-"accnt_amt_before": 1
-},{
-"order_no": "test2",
-"amount": 200,
-"dispatch_event": "pay",
-"dispatch_type": "1",
-"mch_accnt_no": "profit_1",
-"accnt_amt_before": 1
-}]},
-"biz_type": "mchaccnt.pay.dispatch",
-"out_trans_no": "225295c2068ae5405cada7edf1670749a6",
-"sign_type": "MD5",
-"timestamp": "20191028022240"
-}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"biz_content": {
 "trans_no": "MH20181229115220NBUu",
 "trans_time": "2020-01-11 14:35:41",
 "trans_channel": "29999",
@@ -2749,6 +2629,230 @@
   <si>
     <t>order_no(唯一id)
 输入超长的oder_no</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"message":"交易流水号有误:{[trans_no]参数}"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"message":"交易完成时间有误:{[trans_time]参数}"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"biz_content": {
+"trans_no": "&amp;￥#",
+"trans_time": "2020-01-11 14:35:41",
+"trans_channel": "20251",
+"settle_type":"1",
+"trans_amt": "2200",
+"split_accnt_detail": [{
+"order_no": "test1",
+"amount": 2000,
+"dispatch_event": "pay",
+"dispatch_type": "1",
+"mch_accnt_no": "mucsub_1",
+"accnt_amt_before": 1
+},{
+"order_no": "test2",
+"amount": 200,
+"dispatch_event": "pay",
+"dispatch_type": "1",
+"mch_accnt_no": "profit_1",
+"accnt_amt_before": 1
+}]},
+"biz_type": "mchaccnt.pay.dispatch",
+"out_trans_no": "225295c2068ae5405cada7edf1670749a6",
+"sign_type": "MD5",
+"timestamp": "20191028022240"
+}</t>
+  </si>
+  <si>
+    <t>{"code":"500"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"message":"order_no有误{order_no}"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"biz_content": {
+"trans_no": "MH20181229115220NBUu",
+"trans_time": "2020-01-11 14:35:41",
+"trans_channel": "20251",
+"settle_type":"1",
+"trans_amt": "1",
+"split_accnt_detail": [{
+"order_no": "test1",
+"amount": 1,
+"dispatch_event": "pay",
+"dispatch_type": "1",
+"mch_accnt_no": "",
+"accnt_amt_before": 1
+},{
+"order_no": "test2",
+"amount": 0,
+"dispatch_event": "pay",
+"dispatch_type": "1",
+"mch_accnt_no": "",
+"accnt_amt_before": 1
+}]},
+"biz_type": "mchaccnt.pay.dispatch",
+"out_trans_no": "225295c2068ae5405cada7edf1670749a6",
+"sign_type": "MD5",
+"timestamp": "20191028022240"
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"biz_content": {
+"trans_no": "MH20181229115220NBUu",
+"trans_time": "2020-01-11 14:35:41",
+"trans_channel": "20251",
+"settle_type":"1",
+"trans_amt": "1",
+"split_accnt_detail": [{
+"order_no": "test1",
+"amount": 1,
+"dispatch_event": "pay",
+"dispatch_type": "1",
+"mch_accnt_no": "sadasd",
+"accnt_amt_before": 1
+},{
+"order_no": "test2",
+"amount": 0,
+"dispatch_event": "pay",
+"dispatch_type": "1",
+"mch_accnt_no": "asdasdsa",
+"accnt_amt_before": 1
+}]},
+"biz_type": "mchaccnt.pay.dispatch",
+"out_trans_no": "225295c2068ae5405cada7edf1670749a6",
+"sign_type": "MD5",
+"timestamp": "20191028022240"
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"biz_content": {
+"trans_no": "MH20181229115220NBUu",
+"trans_time": "2020-01-11 14:35:41",
+"trans_channel": "20251",
+"settle_type":"1",
+"trans_amt": "2200",
+"split_accnt_detail":{}},
+"biz_type": "mchaccnt.pay.dispatch",
+"out_trans_no": "225295c2068ae5405cada7edf1670749a6",
+"sign_type": "MD5",
+"timestamp": "20191028022240"
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"message":"数据结构有误:{[split_accnt_detail]参数}l"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"biz_content": {
+"trans_no": "MH20181229115220NBUu",
+"trans_time": "2020-01-11 14:35:41",
+"trans_channel": "20251",
+"settle_type":"1",
+"trans_amt": "1",
+"split_accnt_detail": [{
+"order_no": "test1",
+"amount": 1,
+"dispatch_event": "pay",
+"dispatch_type": "1",
+"mch_accnt_no": "T0020181229115338000003",
+"accnt_amt_before": 1
+},{
+"order_no": "test2",
+"amount": 0,
+"dispatch_event": "pay",
+"dispatch_type": "1",
+"mch_accnt_no": "T0020181229115338000003",
+"accnt_amt_before": 1
+}]},
+"biz_type": "mchaccnt.pay.dispatch",
+"out_trans_no": "225295c2068ae5405cada7edf1670749a6",
+"sign_type": "MD5",
+"timestamp": "20191028022240"
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mch_accnt_no(子商户号)
+子商户号类型为其他类型的商户，如在途商户（T0020181229115338000003）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"message":"子商户号类型无效:{mch_accnt_no}参数"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"message":"交易所属通道和商户号不匹配"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"message":"分账金额有误:{[trans_amt]参数}"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":"500"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_54</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付记账接口accnt_amt_before校验</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>accnt_amt_before(事前余额)
+超长</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"message":"事前余额无效:{accnt_amt_before}参数"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>accnt_amt_before(事前余额)超过数据库长度限制</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用正确的支付记账传参，单独对事前余额字段进行验证</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"biz_content": {
+"trans_no": "MH20181229115220NBUu",
+"trans_time": "2020-01-11 14:35:41",
+"trans_channel": "20251",
+"settle_type":"1",
+"trans_amt": "1",
+"split_accnt_detail": [{
+"order_no": "test1",
+"amount": 1,
+"dispatch_event": "pay",
+"dispatch_type": "1",
+"mch_accnt_no": "mucsub_1",
+"accnt_amt_before": 12222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222
+}]},
+"biz_type": "mchaccnt.pay.dispatch",
+"out_trans_no": "225295c2068ae5405cada7edf1670749a6",
+"sign_type": "MD5",
+"timestamp": "20191028022240"
+}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3168,10 +3272,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F52425-50B6-4FC5-B1E3-EFCEFBF70C4B}">
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G66" activeCellId="1" sqref="G19 G66"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3198,10 +3302,10 @@
         <v>34</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>35</v>
@@ -3231,10 +3335,10 @@
         <v>39</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>43</v>
@@ -3262,10 +3366,10 @@
         <v>39</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>43</v>
@@ -3293,10 +3397,10 @@
         <v>39</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>55</v>
@@ -3324,10 +3428,10 @@
         <v>39</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>56</v>
@@ -3355,17 +3459,17 @@
         <v>39</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>57</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>45</v>
@@ -3386,10 +3490,10 @@
         <v>39</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>57</v>
@@ -3414,13 +3518,13 @@
         <v>60</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -3431,7 +3535,7 @@
         <v>136</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3439,13 +3543,13 @@
         <v>66</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -3456,7 +3560,7 @@
         <v>136</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3464,13 +3568,13 @@
         <v>73</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -3481,7 +3585,7 @@
         <v>136</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3489,20 +3593,20 @@
         <v>74</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>45</v>
@@ -3514,7 +3618,7 @@
         <v>42</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3522,20 +3626,20 @@
         <v>77</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>45</v>
@@ -3547,7 +3651,7 @@
         <v>42</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3555,20 +3659,20 @@
         <v>80</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>45</v>
@@ -3580,7 +3684,7 @@
         <v>42</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3591,7 +3695,7 @@
         <v>64</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>63</v>
@@ -3604,7 +3708,7 @@
         <v>62</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>65</v>
@@ -3620,7 +3724,7 @@
         <v>64</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>68</v>
@@ -3633,14 +3737,12 @@
         <v>89</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>169</v>
+        <v>288</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="J15" s="9" t="s">
-        <v>136</v>
-      </c>
+      <c r="J15"/>
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3651,7 +3753,7 @@
         <v>64</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>67</v>
@@ -3661,17 +3763,15 @@
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>168</v>
+        <v>288</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="J16" s="9" t="s">
-        <v>136</v>
-      </c>
+      <c r="J16"/>
       <c r="K16" s="3"/>
     </row>
     <row r="17" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3682,7 +3782,7 @@
         <v>64</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>69</v>
@@ -3711,7 +3811,7 @@
         <v>64</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>75</v>
@@ -3740,7 +3840,7 @@
         <v>64</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>79</v>
@@ -3753,7 +3853,7 @@
         <v>90</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>82</v>
@@ -3769,7 +3869,7 @@
         <v>64</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>84</v>
@@ -3782,14 +3882,12 @@
         <v>91</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>169</v>
+        <v>300</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="J20" s="9" t="s">
-        <v>136</v>
-      </c>
+      <c r="J20"/>
       <c r="K20" s="3"/>
     </row>
     <row r="21" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3800,7 +3898,7 @@
         <v>64</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>85</v>
@@ -3829,7 +3927,7 @@
         <v>64</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>88</v>
@@ -3842,7 +3940,7 @@
         <v>93</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>94</v>
@@ -3858,7 +3956,7 @@
         <v>64</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>95</v>
@@ -3871,14 +3969,12 @@
         <v>96</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>168</v>
+        <v>289</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="J23" s="11" t="s">
-        <v>136</v>
-      </c>
+      <c r="J23" s="10"/>
       <c r="K23" s="3"/>
     </row>
     <row r="24" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3889,7 +3985,7 @@
         <v>64</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>102</v>
@@ -3902,14 +3998,12 @@
         <v>103</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>168</v>
+        <v>289</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="J24" s="11" t="s">
-        <v>136</v>
-      </c>
+      <c r="J24" s="10"/>
       <c r="K24" s="3"/>
     </row>
     <row r="25" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3920,7 +4014,7 @@
         <v>64</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>106</v>
@@ -3949,7 +4043,7 @@
         <v>64</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>110</v>
@@ -3962,14 +4056,12 @@
         <v>112</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>169</v>
+        <v>289</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="J26" s="11" t="s">
-        <v>136</v>
-      </c>
+      <c r="J26"/>
       <c r="K26" s="3"/>
     </row>
     <row r="27" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3980,7 +4072,7 @@
         <v>64</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>113</v>
@@ -4009,7 +4101,7 @@
         <v>64</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>123</v>
@@ -4038,7 +4130,7 @@
         <v>64</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>124</v>
@@ -4067,7 +4159,7 @@
         <v>64</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>121</v>
@@ -4090,13 +4182,13 @@
     </row>
     <row r="31" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>126</v>
@@ -4109,25 +4201,23 @@
         <v>127</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>168</v>
+        <v>301</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="J31" s="11" t="s">
-        <v>136</v>
-      </c>
+      <c r="J31"/>
       <c r="K31" s="3"/>
     </row>
     <row r="32" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>130</v>
@@ -4150,26 +4240,26 @@
     </row>
     <row r="33" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>119</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>135</v>
@@ -4179,13 +4269,13 @@
     </row>
     <row r="34" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>133</v>
@@ -4208,13 +4298,13 @@
     </row>
     <row r="35" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>149</v>
@@ -4237,13 +4327,13 @@
     </row>
     <row r="36" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>154</v>
@@ -4266,13 +4356,13 @@
     </row>
     <row r="37" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>158</v>
@@ -4295,292 +4385,284 @@
     </row>
     <row r="38" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>164</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3" t="s">
-        <v>165</v>
+        <v>295</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>166</v>
+        <v>296</v>
       </c>
       <c r="I38" s="3"/>
-      <c r="J38" s="11" t="s">
-        <v>136</v>
-      </c>
+      <c r="J38"/>
       <c r="K38" s="3"/>
     </row>
     <row r="39" spans="1:11" ht="228" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>251</v>
+        <v>291</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>252</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
     <row r="40" spans="1:11" ht="228" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>250</v>
+        <v>291</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>252</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
     <row r="41" spans="1:11" ht="201.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
     </row>
     <row r="42" spans="1:11" ht="188.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>180</v>
+        <v>292</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="J42" s="11" t="s">
-        <v>136</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="J42"/>
     </row>
     <row r="43" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="J43"/>
       <c r="K43" s="3"/>
     </row>
     <row r="44" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="J44"/>
       <c r="K44" s="3"/>
     </row>
     <row r="45" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="J45"/>
       <c r="K45" s="3"/>
     </row>
     <row r="46" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="J46"/>
       <c r="K46" s="3"/>
     </row>
     <row r="47" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>132</v>
@@ -4590,110 +4672,110 @@
     </row>
     <row r="48" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="J48"/>
       <c r="K48" s="3"/>
     </row>
     <row r="49" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="J49"/>
       <c r="K49" s="3"/>
     </row>
     <row r="50" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="J50"/>
       <c r="K50" s="3"/>
     </row>
     <row r="51" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="9" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="J51" s="11" t="s">
         <v>136</v>
@@ -4702,92 +4784,117 @@
     </row>
     <row r="52" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3" t="s">
-        <v>216</v>
+        <v>293</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>234</v>
+        <v>302</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J52" s="11" t="s">
-        <v>136</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="J52"/>
       <c r="K52" s="3"/>
     </row>
     <row r="53" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3" t="s">
-        <v>216</v>
+        <v>294</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>238</v>
+        <v>302</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="J53" s="11" t="s">
-        <v>136</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="J53"/>
       <c r="K53" s="3"/>
     </row>
     <row r="54" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>241</v>
+        <v>298</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
+      <c r="G54" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>299</v>
+      </c>
       <c r="I54" s="3"/>
-      <c r="J54" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="K54" s="9" t="s">
-        <v>242</v>
-      </c>
+      <c r="J54"/>
+      <c r="K54"/>
+    </row>
+    <row r="55" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="J55"/>
+      <c r="K55" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -4981,15 +5088,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="13"/>
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="15"/>
-</pixelators>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <commentList sheetStid="13">
     <comment s:ref="P1" rgbClr="FF0000">
@@ -5006,18 +5118,13 @@
 </comments>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
-</file>
-
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="13"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="15"/>
+</pixelators>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5030,7 +5137,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -5039,6 +5146,15 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
@@ -5047,17 +5163,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/project_data/machaccnt_pay_dispatch/支付记账接口测试用例.xlsx
+++ b/project_data/machaccnt_pay_dispatch/支付记账接口测试用例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\YzaoutTestProject\YzAutoTestProject\project_data\machaccnt_pay_dispatch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553AF009-D8DA-443C-9DAE-F35D14D9DB1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5B89B9-7CBF-4AA1-A870-C89D08A07EF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="331">
   <si>
     <t>级别</t>
   </si>
@@ -139,10 +139,6 @@
   </si>
   <si>
     <t>前置条件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求类型</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -459,36 +455,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"biz_content": {
-"trans_no": "MH20181229115220NBUu",
-"trans_time": "2020-01-11 14:35:41",
-"trans_channel": "20251",
-"settle_type":"1",
-"trans_amt": "2200",
-"split_accnt_detail": [{
-"order_no": "test1",
-"amount": 2000,
-"dispatch_event": "pay",
-"dispatch_type": "1",
-"mch_accnt_no": "mucsub_1",
-"accnt_amt_before": 1
-},{
-"order_no": "test2",
-"amount": 200,
-"dispatch_event": "pay",
-"dispatch_type": "1",
-"mch_accnt_no": "profit_1",
-"accnt_amt_before": 1
-}]},
-"biz_type": "mchaccnt.pay.dispatch",
-"out_trans_no": "225295c2068ae5405cada7edf1670749a6",
-"sign_type": "MD5",
-"timestamp": "20191028022240"
-}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>编号</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2792,19 +2758,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>{"message":"子商户号类型无效:{mch_accnt_no}参数"}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>{"message":"交易所属通道和商户号不匹配"}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>{"message":"分账金额有误:{[trans_amt]参数}"}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"code":"500"}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -2847,6 +2805,207 @@
 "dispatch_type": "1",
 "mch_accnt_no": "mucsub_1",
 "accnt_amt_before": 12222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222
+}]},
+"biz_type": "mchaccnt.pay.dispatch",
+"out_trans_no": "225295c2068ae5405cada7edf1670749a6",
+"sign_type": "MD5",
+"timestamp": "20191028022240"
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"message":"该子商户账号类型不可上报分账-in"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":"500","message":"子商户账号不存在-in"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mch_accnt_no是不可上报分账类型账户</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":"210","message":"必输参数不能为空{mch_accnt_no}"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>禅道记录</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"module":"1","pri":"1","severity":"1","assignedTo":"zhichanglong"}</t>
+  </si>
+  <si>
+    <t>{"module":"1","pri":"3","severity":"3","assignedTo":"zhichanglong"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"module":"1","pri":"2","severity":"2","assignedTo":"zhichanglong"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"biz_content": {
+"trans_no": "MH20181229115220NBUu",
+"trans_time": "2020-01-11 14:35:41",
+"trans_channel": "29999",
+"settle_type":"1",
+"trans_amt": "1",
+"split_accnt_detail": [{
+"order_no": "test1",
+"amount": 1,
+"dispatch_event": "pay",
+"dispatch_type": "1",
+"mch_accnt_no": "mucsub_1",
+"accnt_amt_before": 1
+}]},
+"biz_type": "mchaccnt.pay.dispatch",
+"out_trans_no": "225295c2068ae5405cada7edf1670749a6",
+"sign_type": "MD5",
+"timestamp": "20191028022240"
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>费率为0.8传入金额为1流程测试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>费率为0.1传入金额为1流程测试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_55</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_56</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_57</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付分账正常调用费率调整流程测试1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付分账正常调用费率调整流程测试2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付分账正常调用费率调整流程测试3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>制造可能形成精度丢失的数据进行测试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"biz_content": {
+"trans_no": "MH20181229115220NBUu",
+"trans_time": "2020-01-11 14:35:41",
+"trans_channel": "29999",
+"settle_type":"1",
+"trans_amt": "2034",
+"split_accnt_detail": [{
+"order_no": "test1",
+"amount": 2034,
+"dispatch_event": "pay",
+"dispatch_type": "1",
+"mch_accnt_no": "mucsub_1",
+"accnt_amt_before": 1
+}]},
+"biz_type": "mchaccnt.pay.dispatch",
+"out_trans_no": "225295c2068ae5405cada7edf1670749a6",
+"sign_type": "MD5",
+"timestamp": "20191028022240"
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"biz_content": {
+"trans_no": "MH20181229115220NBUu",
+"trans_time": "2020-01-11 14:35:41",
+"trans_channel": "29999",
+"settle_type":"1",
+"trans_amt": "3994",
+"split_accnt_detail": [{
+"order_no": "test1",
+"amount": 3994,
+"dispatch_event": "pay",
+"dispatch_type": "1",
+"mch_accnt_no": "mucsub_1",
+"accnt_amt_before": 1
+}]},
+"biz_type": "mchaccnt.pay.dispatch",
+"out_trans_no": "225295c2068ae5405cada7edf1670749a6",
+"sign_type": "MD5",
+"timestamp": "20191028022240"
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_58</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_59</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_60</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"biz_content": {
+"trans_no": "MH20181229115220NBUu",
+"trans_time": "2020-01-11 14:35:41",
+"trans_channel": "29999",
+"settle_type":"1",
+"trans_amt": "9374",
+"split_accnt_detail": [{
+"order_no": "test1",
+"amount": 9374,
+"dispatch_event": "pay",
+"dispatch_type": "1",
+"mch_accnt_no": "mucsub_1",
+"accnt_amt_before": 1
+}]},
+"biz_type": "mchaccnt.pay.dispatch",
+"out_trans_no": "225295c2068ae5405cada7edf1670749a6",
+"sign_type": "MD5",
+"timestamp": "20191028022240"
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"biz_content": {
+"trans_no": "MH20181229115220NBUu",
+"trans_time": "2020-01-11 14:35:41",
+"trans_channel": "2051",
+"settle_type":"1",
+"trans_amt": "2200",
+"split_accnt_detail": [{
+"order_no": "test1",
+"amount": 2000,
+"dispatch_event": "pay",
+"dispatch_type": "1",
+"mch_accnt_no": "mucsub_1",
+"accnt_amt_before": 1
+},{
+"order_no": "test2",
+"amount": 200,
+"dispatch_event": "pay",
+"dispatch_type": "1",
+"mch_accnt_no": "profit_1",
+"accnt_amt_before": 1
 }]},
 "biz_type": "mchaccnt.pay.dispatch",
 "out_trans_no": "225295c2068ae5405cada7edf1670749a6",
@@ -3272,10 +3431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F52425-50B6-4FC5-B1E3-EFCEFBF70C4B}">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3296,235 +3455,247 @@
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>35</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>36</v>
+        <v>310</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>33</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="J1" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11" ht="228" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>311</v>
+      </c>
       <c r="G2" s="3" t="s">
-        <v>46</v>
+        <v>330</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="I3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>311</v>
+      </c>
       <c r="G4" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>311</v>
+      </c>
       <c r="G5" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>280</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>311</v>
+      </c>
       <c r="G6" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>311</v>
+      </c>
       <c r="G7" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -3532,24 +3703,24 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -3557,24 +3728,24 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -3582,829 +3753,885 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="9" t="s">
         <v>234</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="9" t="s">
         <v>234</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="9" t="s">
         <v>234</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="J15"/>
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>312</v>
+      </c>
       <c r="G16" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J16"/>
       <c r="K16" s="3"/>
     </row>
     <row r="17" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>312</v>
+      </c>
       <c r="G17" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F18" s="3"/>
+        <v>81</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>312</v>
+      </c>
       <c r="G18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F19" s="3"/>
+        <v>81</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>312</v>
+      </c>
       <c r="G19" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
     <row r="20" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="J20"/>
       <c r="K20" s="3"/>
     </row>
     <row r="21" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="J21" s="10"/>
       <c r="K21" s="3"/>
     </row>
     <row r="22" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F22" s="3"/>
+        <v>81</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>312</v>
+      </c>
       <c r="G22" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J22" s="10"/>
       <c r="K22" s="3"/>
     </row>
     <row r="23" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D23" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="J23" s="10"/>
       <c r="K23" s="3"/>
     </row>
     <row r="24" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D24" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="J24" s="10"/>
       <c r="K24" s="3"/>
     </row>
     <row r="25" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D25" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="H25" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J25" s="10"/>
       <c r="K25" s="3"/>
     </row>
     <row r="26" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D26" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="H26" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J26"/>
       <c r="K26" s="3"/>
     </row>
     <row r="27" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D27" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="I27" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="J27"/>
       <c r="K27" s="3"/>
     </row>
     <row r="28" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F28" s="3"/>
+        <v>117</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>312</v>
+      </c>
       <c r="G28" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J28"/>
       <c r="K28" s="3"/>
     </row>
     <row r="29" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F29" s="3"/>
+        <v>117</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>312</v>
+      </c>
       <c r="G29" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J29"/>
       <c r="K29" s="3"/>
     </row>
     <row r="30" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F30" s="3"/>
+        <v>117</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>312</v>
+      </c>
       <c r="G30" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J30"/>
       <c r="K30" s="3"/>
     </row>
     <row r="31" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F31" s="3"/>
+        <v>117</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>312</v>
+      </c>
       <c r="G31" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="I31" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="J31"/>
       <c r="K31" s="3"/>
     </row>
     <row r="32" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D32" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I32" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="J32"/>
       <c r="K32" s="3"/>
     </row>
     <row r="33" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D33" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="H33" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>183</v>
-      </c>
       <c r="I33" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J33"/>
       <c r="K33" s="3"/>
     </row>
     <row r="34" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D34" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I34" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="J34"/>
       <c r="K34" s="3"/>
     </row>
     <row r="35" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D35" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3" t="s">
+      <c r="H35" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I35" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="J35"/>
       <c r="K35" s="3"/>
     </row>
     <row r="36" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D36" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I36" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="J36"/>
       <c r="K36" s="3"/>
     </row>
     <row r="37" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D37" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I37" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>160</v>
       </c>
       <c r="J37"/>
       <c r="K37" s="3"/>
     </row>
     <row r="38" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="F38" s="3"/>
+        <v>162</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>312</v>
+      </c>
       <c r="G38" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38"/>
@@ -4412,489 +4639,721 @@
     </row>
     <row r="39" spans="1:11" ht="228" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F39" s="3"/>
+        <v>169</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>313</v>
+      </c>
       <c r="G39" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
     <row r="40" spans="1:11" ht="228" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F40" s="3"/>
+        <v>167</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>313</v>
+      </c>
       <c r="G40" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
     <row r="41" spans="1:11" ht="201.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E41" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H41" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="H41" s="3" t="s">
+      <c r="I41" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>176</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
     </row>
     <row r="42" spans="1:11" ht="188.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="F42" s="3"/>
+        <v>173</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>312</v>
+      </c>
       <c r="G42" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J42"/>
     </row>
     <row r="43" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F43" s="3"/>
+        <v>183</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>312</v>
+      </c>
       <c r="G43" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="I43" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>193</v>
       </c>
       <c r="J43"/>
       <c r="K43" s="3"/>
     </row>
     <row r="44" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F44" s="3"/>
+        <v>183</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>312</v>
+      </c>
       <c r="G44" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="H44" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>196</v>
-      </c>
       <c r="I44" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J44"/>
       <c r="K44" s="3"/>
     </row>
     <row r="45" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F45" s="3"/>
+        <v>183</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>312</v>
+      </c>
       <c r="G45" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H45" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I45" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>198</v>
       </c>
       <c r="J45"/>
       <c r="K45" s="3"/>
     </row>
     <row r="46" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F46" s="3"/>
+        <v>183</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>312</v>
+      </c>
       <c r="G46" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J46"/>
       <c r="K46" s="3"/>
     </row>
     <row r="47" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F47" s="3"/>
+        <v>183</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>312</v>
+      </c>
       <c r="G47" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J47"/>
       <c r="K47" s="3"/>
     </row>
     <row r="48" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D48" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="H48" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="I48" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>212</v>
       </c>
       <c r="J48"/>
       <c r="K48" s="3"/>
     </row>
     <row r="49" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D49" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="I49" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>217</v>
       </c>
       <c r="J49"/>
       <c r="K49" s="3"/>
     </row>
     <row r="50" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D50" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="H50" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3" t="s">
+      <c r="I50" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>221</v>
       </c>
       <c r="J50"/>
       <c r="K50" s="3"/>
     </row>
     <row r="51" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K51"/>
     </row>
     <row r="52" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D52" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="I52" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>228</v>
       </c>
       <c r="J52"/>
       <c r="K52" s="3"/>
     </row>
     <row r="53" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="F53" s="3"/>
+        <v>225</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>312</v>
+      </c>
       <c r="G53" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J53"/>
       <c r="K53" s="3"/>
     </row>
     <row r="54" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="F54" s="3"/>
+        <v>225</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>313</v>
+      </c>
       <c r="G54" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="I54" s="3"/>
+        <v>306</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>308</v>
+      </c>
       <c r="J54"/>
       <c r="K54"/>
     </row>
     <row r="55" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="I55" s="3" t="s">
         <v>303</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>307</v>
       </c>
       <c r="J55"/>
       <c r="K55" s="3"/>
+    </row>
+    <row r="56" spans="1:11" ht="228" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K56" s="3"/>
+    </row>
+    <row r="57" spans="1:11" ht="228" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K57" s="3"/>
+    </row>
+    <row r="58" spans="1:11" ht="228" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K58" s="3"/>
+    </row>
+    <row r="59" spans="1:11" ht="228" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K59" s="3"/>
+    </row>
+    <row r="60" spans="1:11" ht="228" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K60" s="3"/>
+    </row>
+    <row r="61" spans="1:11" ht="228" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K61" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -5079,6 +5538,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <rangeList sheetStid="13" master=""/>
   <rangeList sheetStid="2" master=""/>
@@ -5087,18 +5552,13 @@
 </allowEditUser>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="13"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="15"/>
+</pixelators>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5119,15 +5579,23 @@
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="13"/>
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="15"/>
-</pixelators>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
@@ -5136,17 +5604,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -5164,7 +5623,7 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/project_data/machaccnt_pay_dispatch/支付记账接口测试用例.xlsx
+++ b/project_data/machaccnt_pay_dispatch/支付记账接口测试用例.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\YzaoutTestProject\YzAutoTestProject\project_data\machaccnt_pay_dispatch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5B89B9-7CBF-4AA1-A870-C89D08A07EF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AB8B8B-EC23-4BC0-A542-5D0DE1D8F469}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="352">
   <si>
     <t>级别</t>
   </si>
@@ -1647,40 +1647,6 @@
 "settle_type":"1",
 "trans_amt": "2200",
 "split_accnt_detail": [{
-"order_no": "DD120191211234801",
-"amount": 2000,
-"dispatch_event": "pay",
-"dispatch_type": "1",
-"mch_accnt_no": "mucsub_1",
-"accnt_amt_before": 1
-},{
-"order_no": "test2",
-"amount": 200,
-"dispatch_event": "pay",
-"dispatch_type": "1",
-"mch_accnt_no": "profit_1",
-"accnt_amt_before": 1
-}]},
-"biz_type": "mchaccnt.pay.dispatch",
-"out_trans_no": "225295c2068ae5405cada7edf1670749a6",
-"sign_type": "MD5",
-"timestamp": "20191028022240"
-}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DD120191211234801 数据库已经存在的订单号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"biz_content": {
-"trans_no": "MH20181229115220NBUu",
-"trans_time": "2020-01-11 14:35:41",
-"trans_channel": "20251",
-"settle_type":"1",
-"trans_amt": "2200",
-"split_accnt_detail": [{
 "order_no": "test1",
 "amount": 2000,
 "dispatch_event": "pay",
@@ -1742,10 +1708,6 @@
   </si>
   <si>
     <t>{"code":"210","message":"必输参数不能为空{order_no}"}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试不输入超长的oder_no</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -2563,13 +2525,6 @@
   </si>
   <si>
     <t>(平台承担不扣手续费)传入2个子相同的分润商户无子商户情况下记账金额是否正确</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"code":"317","message":"交易所属通道和商户号不匹配"}</t>
-  </si>
-  <si>
-    <t>{"code":"317","message":"交易所属通道和商户号不匹配"}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -2758,14 +2713,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>{"message":"交易所属通道和商户号不匹配"}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"message":"分账金额有误:{[trans_amt]参数}"}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>pay_54</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2776,10 +2723,6 @@
   <si>
     <t>accnt_amt_before(事前余额)
 超长</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"message":"事前余额无效:{accnt_amt_before}参数"}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -2818,10 +2761,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>{"code":"500","message":"子商户账号不存在-in"}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>mch_accnt_no是不可上报分账类型账户</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3012,6 +2951,284 @@
 "sign_type": "MD5",
 "timestamp": "20191028022240"
 }</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试输入超长的oder_no</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"message":"参数无效{accnt_amt_before}"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>trans_time(同一天，不同时间(秒))下 重复记账两次 trans_no相同</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>trans_no校验</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付分账异常调用测试用例2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"message":"流水号重复-in"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用正确的支付记账传参，单独对trans_time字段进行验证(数据库已经存在相同的trans_No MH20181229115220NBUu)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"biz_content": {
+"trans_no": "MH20181229115220NBUu",
+"trans_time": "2020-05-20 17:25:55",
+"trans_channel": "20251",
+"settle_type":"1",
+"trans_amt": "1",
+"split_accnt_detail": [{
+"order_no": "test1",
+"amount": 1,
+"dispatch_event": "pay",
+"dispatch_type": "1",
+"mch_accnt_no": "mucsub_1",
+"accnt_amt_before": 1
+}]},
+"biz_type": "mchaccnt.pay.dispatch",
+"out_trans_no": "225295c2068ae5405cada7edf1670749a6",
+"sign_type": "MD5",
+"timestamp": "20191028022240"
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>trans_time(同一天，同一时间(秒))下 重复记账两次 trans_no相同</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"biz_content": {
+"trans_no": "MH20181229115220NBUu",
+"trans_time": "2020-05-20 17:25:58",
+"trans_channel": "20251",
+"settle_type":"1",
+"trans_amt": "1",
+"split_accnt_detail": [{
+"order_no": "test1",
+"amount": 1,
+"dispatch_event": "pay",
+"dispatch_type": "1",
+"mch_accnt_no": "mucsub_1",
+"accnt_amt_before": 1
+}]},
+"biz_type": "mchaccnt.pay.dispatch",
+"out_trans_no": "225295c2068ae5405cada7edf1670749a6",
+"sign_type": "MD5",
+"timestamp": "20191028022240"
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">trans_time(同一天，同一时间(秒))下 重复记账两次 trans_no不同  pass </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"biz_content": {
+"trans_no": "MH20181229115220NBUu2",
+"trans_time": "2020-05-20 17:25:58",
+"trans_channel": "20251",
+"settle_type":"1",
+"trans_amt": "1",
+"split_accnt_detail": [{
+"order_no": "test1",
+"amount": 1,
+"dispatch_event": "pay",
+"dispatch_type": "1",
+"mch_accnt_no": "mucsub_1",
+"accnt_amt_before": 1
+}]},
+"biz_type": "mchaccnt.pay.dispatch",
+"out_trans_no": "225295c2068ae5405cada7edf1670749a6",
+"sign_type": "MD5",
+"timestamp": "20191028022240"
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付分账异常调用测试用例3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"message":"success"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"biz_content": {
+"trans_no": "MH20181229115220NBUu",
+"trans_time": "2020-05-19 17:25:58",
+"trans_channel": "20251",
+"settle_type":"1",
+"trans_amt": "1",
+"split_accnt_detail": [{
+"order_no": "test1",
+"amount": 1,
+"dispatch_event": "pay",
+"dispatch_type": "1",
+"mch_accnt_no": "mucsub_1",
+"accnt_amt_before": 1
+}]},
+"biz_type": "mchaccnt.pay.dispatch",
+"out_trans_no": "225295c2068ae5405cada7edf1670749a6",
+"sign_type": "MD5",
+"timestamp": "20191028022240"
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一笔trans_time 为5.19日某一时间点，第二笔为 20日报相同的trans_no</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一笔trans_time 为20日某一时间点，第二笔为 21日报相同的trans_no</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"biz_content": {
+"trans_no": "MH20181229115220NBUu",
+"trans_time": "2020-05-21 17:25:58",
+"trans_channel": "20251",
+"settle_type":"1",
+"trans_amt": "1",
+"split_accnt_detail": [{
+"order_no": "test1",
+"amount": 1,
+"dispatch_event": "pay",
+"dispatch_type": "1",
+"mch_accnt_no": "mucsub_1",
+"accnt_amt_before": 1
+}]},
+"biz_type": "mchaccnt.pay.dispatch",
+"out_trans_no": "225295c2068ae5405cada7edf1670749a6",
+"sign_type": "MD5",
+"timestamp": "20191028022240"
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试商户使用顺网商户下的trans_no进行记账 同一天（子商户号和分润商户号进行pay）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"biz_content": {
+"trans_no": "2019101322001411440516686543",
+"trans_time": "2019-10-13 23:53:59",
+"trans_channel": "20251",
+"settle_type":"1",
+"trans_amt": "1",
+"split_accnt_detail": [{
+"order_no": "test1",
+"amount": 1,
+"dispatch_event": "pay",
+"dispatch_type": "1",
+"mch_accnt_no": "mucsub_1",
+"accnt_amt_before": 1
+}]},
+"biz_type": "mchaccnt.pay.dispatch",
+"out_trans_no": "225295c2068ae5405cada7edf1670749a6",
+"sign_type": "MD5",
+"timestamp": "20191028022240"
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"message":"参数无效:{[trans_time]参数}"}</t>
+  </si>
+  <si>
+    <t>{"message":"参数无效:{[trans_time]参数}"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":"317","message":"交易所属通道配置有误-in"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":"317","message":"交易所属通道配置有误-in"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":"203","message":"子商户账号不存在"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"biz_content": {
+"trans_no": "MH20181229115220NBUu",
+"trans_time": "2020-01-11 14:35:41",
+"trans_channel": "20251",
+"settle_type":"1",
+"trans_amt": "2200",
+"split_accnt_detail": [{
+"order_no": "XYDDSB11602161184065825",
+"amount": 2000,
+"dispatch_event": "pay",
+"dispatch_type": "1",
+"mch_accnt_no": "mucsub_1",
+"accnt_amt_before": 1
+},{
+"order_no": "test2",
+"amount": 200,
+"dispatch_event": "pay",
+"dispatch_type": "1",
+"mch_accnt_no": "profit_1",
+"accnt_amt_before": 1
+}]},
+"biz_type": "mchaccnt.pay.dispatch",
+"out_trans_no": "225295c2068ae5405cada7edf1670749a6",
+"sign_type": "MD5",
+"timestamp": "20191028022240"
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>XYDDSB11602161184065825 数据库已经存在的订单号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">trans_time(同一天，不同时间(毫秒)下) 重复记账两次 trans_no相同 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"biz_content": {
+"trans_no": "MH20181229115220NBUu",
+"trans_time": "2020-05-20 17:25:58.333",
+"trans_channel": "20251",
+"settle_type":"1",
+"trans_amt": "1",
+"split_accnt_detail": [{
+"order_no": "test1",
+"amount": 1,
+"dispatch_event": "pay",
+"dispatch_type": "1",
+"mch_accnt_no": "mucsub_1",
+"accnt_amt_before": 1
+}]},
+"biz_type": "mchaccnt.pay.dispatch",
+"out_trans_no": "225295c2068ae5405cada7edf1670749a6",
+"sign_type": "MD5",
+"timestamp": "20191028022240"
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"message":"支付通道商户号配置有误-in"}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3431,10 +3648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F52425-50B6-4FC5-B1E3-EFCEFBF70C4B}">
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3461,16 +3678,16 @@
         <v>34</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>35</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>33</v>
@@ -3494,19 +3711,19 @@
         <v>38</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>44</v>
@@ -3527,16 +3744,16 @@
         <v>38</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>43</v>
@@ -3560,16 +3777,16 @@
         <v>38</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>49</v>
@@ -3593,16 +3810,16 @@
         <v>38</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>54</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>50</v>
@@ -3626,19 +3843,19 @@
         <v>38</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>55</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>44</v>
@@ -3659,16 +3876,16 @@
         <v>38</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>55</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>56</v>
@@ -3689,13 +3906,13 @@
         <v>58</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -3706,7 +3923,7 @@
         <v>134</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3714,13 +3931,13 @@
         <v>64</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -3731,7 +3948,7 @@
         <v>134</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3739,13 +3956,13 @@
         <v>71</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -3756,7 +3973,7 @@
         <v>134</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3764,22 +3981,22 @@
         <v>72</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>44</v>
@@ -3791,7 +4008,7 @@
         <v>41</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3799,22 +4016,22 @@
         <v>75</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>44</v>
@@ -3826,7 +4043,7 @@
         <v>41</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3834,22 +4051,22 @@
         <v>78</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>44</v>
@@ -3861,7 +4078,7 @@
         <v>41</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3872,7 +4089,7 @@
         <v>62</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>61</v>
@@ -3881,13 +4098,13 @@
         <v>59</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>60</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>63</v>
@@ -3903,7 +4120,7 @@
         <v>62</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>66</v>
@@ -3912,13 +4129,13 @@
         <v>59</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>87</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>68</v>
@@ -3934,7 +4151,7 @@
         <v>62</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>65</v>
@@ -3943,13 +4160,13 @@
         <v>59</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>69</v>
@@ -3965,7 +4182,7 @@
         <v>62</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>67</v>
@@ -3974,7 +4191,7 @@
         <v>59</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>60</v>
@@ -3996,7 +4213,7 @@
         <v>62</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>73</v>
@@ -4005,7 +4222,7 @@
         <v>81</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>74</v>
@@ -4027,7 +4244,7 @@
         <v>62</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>77</v>
@@ -4036,13 +4253,13 @@
         <v>81</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>88</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>280</v>
+        <v>345</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>80</v>
@@ -4058,7 +4275,7 @@
         <v>62</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>82</v>
@@ -4067,13 +4284,13 @@
         <v>81</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>89</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>297</v>
+        <v>351</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>84</v>
@@ -4089,7 +4306,7 @@
         <v>62</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>83</v>
@@ -4098,7 +4315,7 @@
         <v>81</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>90</v>
@@ -4120,7 +4337,7 @@
         <v>62</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>86</v>
@@ -4129,13 +4346,13 @@
         <v>81</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>279</v>
+        <v>344</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>92</v>
@@ -4151,7 +4368,7 @@
         <v>62</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>93</v>
@@ -4160,13 +4377,13 @@
         <v>112</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>94</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>95</v>
@@ -4182,7 +4399,7 @@
         <v>62</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>100</v>
@@ -4191,13 +4408,13 @@
         <v>112</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>101</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>287</v>
+        <v>342</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>102</v>
@@ -4213,7 +4430,7 @@
         <v>62</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>104</v>
@@ -4222,7 +4439,7 @@
         <v>112</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>106</v>
@@ -4244,7 +4461,7 @@
         <v>62</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>108</v>
@@ -4253,13 +4470,13 @@
         <v>112</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>110</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>287</v>
+        <v>343</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>109</v>
@@ -4275,7 +4492,7 @@
         <v>62</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>111</v>
@@ -4284,7 +4501,7 @@
         <v>116</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>146</v>
@@ -4306,7 +4523,7 @@
         <v>62</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>121</v>
@@ -4315,7 +4532,7 @@
         <v>117</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>145</v>
@@ -4337,7 +4554,7 @@
         <v>62</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>122</v>
@@ -4346,7 +4563,7 @@
         <v>117</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>148</v>
@@ -4368,7 +4585,7 @@
         <v>62</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>119</v>
@@ -4377,7 +4594,7 @@
         <v>117</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>126</v>
@@ -4399,7 +4616,7 @@
         <v>62</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>124</v>
@@ -4408,13 +4625,13 @@
         <v>117</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>125</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>127</v>
@@ -4430,7 +4647,7 @@
         <v>62</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>128</v>
@@ -4439,7 +4656,7 @@
         <v>117</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>129</v>
@@ -4461,22 +4678,22 @@
         <v>62</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>117</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>133</v>
@@ -4486,13 +4703,13 @@
     </row>
     <row r="34" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>131</v>
@@ -4501,7 +4718,7 @@
         <v>117</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>132</v>
@@ -4517,13 +4734,13 @@
     </row>
     <row r="35" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>147</v>
@@ -4532,7 +4749,7 @@
         <v>117</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>149</v>
@@ -4548,13 +4765,13 @@
     </row>
     <row r="36" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>152</v>
@@ -4563,7 +4780,7 @@
         <v>117</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>153</v>
@@ -4579,13 +4796,13 @@
     </row>
     <row r="37" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>156</v>
@@ -4594,7 +4811,7 @@
         <v>117</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>157</v>
@@ -4610,28 +4827,28 @@
     </row>
     <row r="38" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>162</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38"/>
@@ -4639,275 +4856,275 @@
     </row>
     <row r="39" spans="1:11" ht="228" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
     <row r="40" spans="1:11" ht="228" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>167</v>
+        <v>348</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>166</v>
+        <v>347</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
     <row r="41" spans="1:11" ht="201.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E41" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H41" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="G41" s="3" t="s">
+      <c r="I41" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
     </row>
     <row r="42" spans="1:11" ht="188.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D42" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H42" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>290</v>
-      </c>
       <c r="I42" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J42"/>
     </row>
     <row r="43" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H43" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="I43" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="J43"/>
       <c r="K43" s="3"/>
     </row>
     <row r="44" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G44" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="I44" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>195</v>
       </c>
       <c r="J44"/>
       <c r="K44" s="3"/>
     </row>
     <row r="45" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G45" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="I45" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>196</v>
       </c>
       <c r="J45"/>
       <c r="K45" s="3"/>
     </row>
     <row r="46" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H46" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="I46" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>197</v>
       </c>
       <c r="J46"/>
       <c r="K46" s="3"/>
     </row>
     <row r="47" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>130</v>
@@ -4917,116 +5134,116 @@
     </row>
     <row r="48" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D48" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I48" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>210</v>
       </c>
       <c r="J48"/>
       <c r="K48" s="3"/>
     </row>
     <row r="49" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G49" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="I49" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>215</v>
       </c>
       <c r="J49"/>
       <c r="K49" s="3"/>
     </row>
     <row r="50" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D50" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="I50" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>219</v>
       </c>
       <c r="J50"/>
       <c r="K50" s="3"/>
     </row>
     <row r="51" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="9" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="J51" s="11" t="s">
         <v>134</v>
@@ -5035,149 +5252,149 @@
     </row>
     <row r="52" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J52"/>
       <c r="K52" s="3"/>
     </row>
     <row r="53" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="J53"/>
       <c r="K53" s="3"/>
     </row>
     <row r="54" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="J54"/>
       <c r="K54"/>
     </row>
     <row r="55" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="J55"/>
       <c r="K55" s="3"/>
     </row>
     <row r="56" spans="1:11" ht="228" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>44</v>
@@ -5192,25 +5409,25 @@
     </row>
     <row r="57" spans="1:11" ht="228" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>44</v>
@@ -5225,25 +5442,25 @@
     </row>
     <row r="58" spans="1:11" ht="228" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>44</v>
@@ -5258,25 +5475,25 @@
     </row>
     <row r="59" spans="1:11" ht="228" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>44</v>
@@ -5291,25 +5508,25 @@
     </row>
     <row r="60" spans="1:11" ht="228" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>44</v>
@@ -5324,25 +5541,25 @@
     </row>
     <row r="61" spans="1:11" ht="228" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>44</v>
@@ -5354,6 +5571,209 @@
         <v>41</v>
       </c>
       <c r="K61" s="3"/>
+    </row>
+    <row r="62" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="I62" s="3"/>
+      <c r="J62"/>
+      <c r="K62" s="3"/>
+    </row>
+    <row r="63" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="I63" s="3"/>
+      <c r="J63"/>
+      <c r="K63" s="3"/>
+    </row>
+    <row r="64" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="I64" s="3"/>
+      <c r="J64"/>
+      <c r="K64" s="3"/>
+    </row>
+    <row r="65" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="I65" s="3"/>
+      <c r="J65"/>
+      <c r="K65" s="3"/>
+    </row>
+    <row r="66" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="I66" s="3"/>
+      <c r="J66"/>
+      <c r="K66" s="3"/>
+    </row>
+    <row r="67" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="I67" s="3"/>
+      <c r="J67"/>
+      <c r="K67" s="3"/>
+    </row>
+    <row r="68" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="I68" s="3"/>
+      <c r="J68"/>
+      <c r="K68" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
